--- a/Paper_AMR_Model/Numerical Data/Data_Numerical_Alan.xlsx
+++ b/Paper_AMR_Model/Numerical Data/Data_Numerical_Alan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\Alan Nakashima - Documentos\Doctor\Jupyter\system\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Jupyter\Paper_AMR_Model\Numerical Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Alan:</t>
         </r>
@@ -44,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Agora ta com o h de convecção apenas
@@ -70,7 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Alan:</t>
         </r>
@@ -79,7 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Agora ta com o h de convecção apenas
@@ -242,14 +242,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145:K330"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection sqref="A1:M330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
